--- a/results_it/late_May_corr_ranking.xlsx
+++ b/results_it/late_May_corr_ranking.xlsx
@@ -453,1262 +453,1262 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>total_precip_mm_150days_sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5105421739674431</v>
+        <v>0.6058769013707056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004657355231044591</v>
+        <v>0.0003878425266970857</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_90days_sum</t>
+          <t>total_precip_mm_120days_sum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5067139489679527</v>
+        <v>0.5527746678681459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005030234783663545</v>
+        <v>0.001535903690559318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>total_precip_mm_120days_sum</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4987980004564743</v>
+        <v>0.5409335533164099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005882524368766977</v>
+        <v>0.002025501945604661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>total_precip_mm_150days_sum</t>
+          <t>min_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4914083814116301</v>
+        <v>0.5354390388470306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006785877880385295</v>
+        <v>0.002295233677432477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4777557188628859</v>
+        <v>0.5279749649928501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008765274869237378</v>
+        <v>0.002711087733588057</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_150days_sum</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4771539329869836</v>
+        <v>0.5255820778793652</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008862666242006238</v>
+        <v>0.002857481131158397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_150days_sum</t>
+          <t>sunshine_duration_h_150days_sum</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4761735171918312</v>
+        <v>-0.5254992771748077</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009023284799950118</v>
+        <v>0.002862666413822691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_90days_sum</t>
+          <t>min_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4692541702517825</v>
+        <v>0.5202514743810963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01022799513692344</v>
+        <v>0.003208298057884571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4683526340216836</v>
+        <v>0.4935352458142944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01039446066612321</v>
+        <v>0.005579719070904719</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>total_precip_mm_91-120days_avg</t>
+          <t>total_precip_mm_90days_sum</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4648321381238654</v>
+        <v>0.4925936552513234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01106643412968468</v>
+        <v>0.005685137126773213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_14days_sum</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4608643667734645</v>
+        <v>0.4843507630651445</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01186700429258965</v>
+        <v>0.006682665208435567</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_120days_sum</t>
+          <t>min_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.455760647883121</v>
+        <v>0.472404450934653</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01296742125317849</v>
+        <v>0.008389728847760449</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_120days_sum</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4382094266794432</v>
+        <v>0.4698108510271226</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01742137365134986</v>
+        <v>0.008805372962150665</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4380425943555365</v>
+        <v>0.4530299777079548</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0174691079174665</v>
+        <v>0.0119365385372754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>sunshine_duration_h_120days_sum</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4212239690597502</v>
+        <v>-0.4497450128639802</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02286778052978268</v>
+        <v>0.01264749631541362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4167860354567022</v>
+        <v>-0.4420311749328226</v>
       </c>
       <c r="C17" t="n">
-        <v>0.02449999993010579</v>
+        <v>0.01445718567560517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_150days_sum</t>
+          <t>min_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.4071862110963533</v>
+        <v>0.4399514269866284</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02835723217319069</v>
+        <v>0.01498042950469453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4009130880875142</v>
+        <v>0.4383809956114846</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03113417170521566</v>
+        <v>0.01538589571207884</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>sunshine_duration_h_90days_sum</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3938430140186912</v>
+        <v>-0.4366509865686719</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03452339608267169</v>
+        <v>0.01584308499230279</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_61-90days_avg</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3927512205069853</v>
+        <v>0.4329088668626732</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03507229406612964</v>
+        <v>0.01687070977218889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>mean_vapor_pressure_hPa_90days_sum</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3917883875255074</v>
+        <v>0.4273577151924355</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03556216525411558</v>
+        <v>0.01849645291335149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>total_precip_mm_90days_sum</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3872145308405867</v>
+        <v>-0.422623266494597</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03796494725559777</v>
+        <v>0.01998340786376519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3831301962584928</v>
+        <v>0.4196787635162714</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04021900249552016</v>
+        <v>0.0209569315954419</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_61-90days_avg</t>
+          <t>mean_vapor_pressure_hPa_150days_sum</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.3827481085425217</v>
+        <v>0.4181765437576899</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04043522615526934</v>
+        <v>0.02146844499642477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3777223378904505</v>
+        <v>0.4117992740888817</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04336674577602627</v>
+        <v>0.02375561140850458</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>min_temp_C_90days_sum</t>
+          <t>min_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3749230213700923</v>
+        <v>0.4088166781146737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04507152399726238</v>
+        <v>0.02489184053971393</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>min_temp_C_150days_sum</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.372404052597005</v>
+        <v>-0.4047243342684537</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04665071382890956</v>
+        <v>0.02652281715107181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>min_temp_C_61-90days_avg</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3709495840334508</v>
+        <v>0.3960612782694001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04758234704605428</v>
+        <v>0.03026376078933731</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_120days_sum</t>
+          <t>mean_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.3672908643078962</v>
+        <v>0.3919914272222557</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04999115164970397</v>
+        <v>0.03216341096738747</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3568937419599234</v>
+        <v>0.3915945484120556</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0573652436168056</v>
+        <v>0.03235371121252285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_121-150days_avg</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3566863664499553</v>
+        <v>0.3915945484120555</v>
       </c>
       <c r="C32" t="n">
-        <v>0.05752054548057525</v>
+        <v>0.03235371121252285</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>sunshine_duration_h_61-90days_avg</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3538768428441258</v>
+        <v>-0.3820380889700267</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05965722241560343</v>
+        <v>0.03721807459415273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_121-150days_avg</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.341007406082138</v>
+        <v>-0.3794547935421708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07024876927623576</v>
+        <v>0.03862930973826248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_120days_sum</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.3374773421698009</v>
+        <v>0.3750553100082376</v>
       </c>
       <c r="C35" t="n">
-        <v>0.073394082831226</v>
+        <v>0.04113135560475115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>mean_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3258666313605486</v>
+        <v>0.3699613872348932</v>
       </c>
       <c r="C36" t="n">
-        <v>0.08450943640956621</v>
+        <v>0.04418862403753857</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3234173327374763</v>
+        <v>0.3670002972565203</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08701010265696028</v>
+        <v>0.04604743563732966</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_90days_sum</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.3227164928819545</v>
+        <v>0.3663232144743614</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08773589972624296</v>
+        <v>0.04648108881962027</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>min_temp_C_120days_sum</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.320361939410383</v>
+        <v>-0.3613664526545116</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09020804994640709</v>
+        <v>0.04975555165070759</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_15-30days_avg</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3159284442283807</v>
+        <v>0.3588483885154867</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09500597050305627</v>
+        <v>0.05148760625607852</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>min_temp_C_121-150days_avg</t>
+          <t>mean_vapor_pressure_hPa_121-150days_avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3142791042651219</v>
+        <v>0.3565735059411793</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09683922964766319</v>
+        <v>0.05309306892234333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mean_temp_C_121-150days_avg</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3073015095522588</v>
+        <v>-0.3504219355596322</v>
       </c>
       <c r="C42" t="n">
-        <v>0.10489116725085</v>
+        <v>0.05763286462834886</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.3016128348990474</v>
+        <v>0.3470534447678522</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1118183358929054</v>
+        <v>0.06024488441135988</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.3016128348990474</v>
+        <v>0.3465975543949392</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1118183358929054</v>
+        <v>0.06060540504291317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>sunshine_duration_h_121-150days_avg</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.2894331545879816</v>
+        <v>-0.3455862305692211</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1277854021808633</v>
+        <v>0.06141119591853815</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>mean_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2894331545879815</v>
+        <v>0.340796921691194</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1277854021808633</v>
+        <v>0.06534161478073021</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>mean_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2818812400091151</v>
+        <v>0.3239873013520121</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1384903913700077</v>
+        <v>0.0807051693991659</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>mean_humidity_pct_15-30days_avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2773399135060594</v>
+        <v>0.3134404652257108</v>
       </c>
       <c r="C48" t="n">
-        <v>0.145233471612016</v>
+        <v>0.09167262249489133</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>total_precip_mm_121-150days_avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.2696060885086828</v>
+        <v>0.3019020525138076</v>
       </c>
       <c r="C49" t="n">
-        <v>0.157257218611953</v>
+        <v>0.1049293081542273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>mean_humidity_pct_121-150days_avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.2696060885086827</v>
+        <v>0.2966270802117666</v>
       </c>
       <c r="C50" t="n">
-        <v>0.157257218611953</v>
+        <v>0.1114478997666604</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>total_precip_mm_61-90days_avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2696001166914824</v>
+        <v>0.292538170054391</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1572667695121373</v>
+        <v>0.1167050200297534</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>total_precip_mm_91-120days_avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.2680330471351339</v>
+        <v>0.2880031909080463</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1597873790885454</v>
+        <v>0.1227484961547757</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mean_temp_C_150days_sum</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2629911853777824</v>
+        <v>-0.2844198337007346</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1680923583626107</v>
+        <v>0.1276848353676075</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mean_temp_C_90days_sum</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2628948672235966</v>
+        <v>0.2829546954846438</v>
       </c>
       <c r="C54" t="n">
-        <v>0.168253931815408</v>
+        <v>0.1297446438575252</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.2509812125732436</v>
+        <v>0.2798025277835209</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1890952824745387</v>
+        <v>0.1342586891229312</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2507922582028562</v>
+        <v>0.2777538146653069</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1894396538120906</v>
+        <v>0.1372534255792913</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2502531971131107</v>
+        <v>0.2773413347005772</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1904244931479863</v>
+        <v>0.1378622156688344</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>mean_humidity_pct_90days_sum</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.2387850846808602</v>
+        <v>0.2681339784064955</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2122234593606423</v>
+        <v>0.1519683223937276</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>mean_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.233663556802453</v>
+        <v>0.2489308316417397</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2224869367223036</v>
+        <v>0.1846710333338037</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2292117582393915</v>
+        <v>0.2487767896652864</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2316762725644436</v>
+        <v>0.1849518030689906</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>max_temp_C_121-150days_avg</t>
+          <t>mean_humidity_pct_150days_sum</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2289186544534842</v>
+        <v>0.234326923867329</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2322900772407131</v>
+        <v>0.2126299305150897</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2205494604562359</v>
+        <v>0.2329404774222326</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2502766725740667</v>
+        <v>0.2154265916360142</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_91-120days_avg</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.2192391584056781</v>
+        <v>0.2273308504484984</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2531734746044947</v>
+        <v>0.2269971774321763</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>mean_humidity_pct_61-90days_avg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2136093856945906</v>
+        <v>0.2194079520109504</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2658695674071876</v>
+        <v>0.2440411920010096</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>mean_temp_C_120days_sum</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2068094979921147</v>
+        <v>0.2178926943872995</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2817462832385356</v>
+        <v>0.2473950762064118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>total_precip_mm_61-90days_avg</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2061488264193342</v>
+        <v>-0.1971721113306337</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2833204989985044</v>
+        <v>0.2963171776570085</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>mean_temp_C_61-90days_avg</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2061290237776964</v>
+        <v>-0.1971721113306336</v>
       </c>
       <c r="C67" t="n">
-        <v>0.283367770321903</v>
+        <v>0.2963171776570085</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>max_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.1953018793348458</v>
+        <v>0.1945797987974406</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3099678291542414</v>
+        <v>0.3028401999416489</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>mean_humidity_pct_120days_sum</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1882545495935615</v>
+        <v>0.1914804666823524</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3280895027738607</v>
+        <v>0.3107565238931904</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1882545495935613</v>
+        <v>0.1858185885846478</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3280895027738612</v>
+        <v>0.3255479857480718</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1844005431957325</v>
+        <v>-0.1826306546111499</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3382681648871299</v>
+        <v>0.3340635150866737</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_91-120days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1809625418528415</v>
+        <v>0.1807643410817263</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3475076036392298</v>
+        <v>0.3391111635946816</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>max_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.1794220531583828</v>
+        <v>0.1797847962010432</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3516962096086667</v>
+        <v>0.3417788543234395</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1567753723903061</v>
+        <v>-0.1784613702796508</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4166970318309258</v>
+        <v>0.3454031626485542</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1567753723903061</v>
+        <v>-0.1698634577280737</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4166970318309279</v>
+        <v>0.3695090432037151</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.1565616404861515</v>
+        <v>0.1599638416612735</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4173405507740002</v>
+        <v>0.3984539113506458</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>sunshine_duration_h_91-120days_avg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1492699826438605</v>
+        <v>-0.1581332423779339</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4396233098570141</v>
+        <v>0.40394398456296</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>max_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1491936914938772</v>
+        <v>0.1529898262886237</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4398597992979485</v>
+        <v>0.4195964541769626</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_121-150days_avg</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1477353656189921</v>
+        <v>0.1328520320210981</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4443935730659621</v>
+        <v>0.4840191442964709</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>mean_wind_speed_mps_121-150days_avg</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.1477215053714596</v>
+        <v>-0.1314480522224497</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4444367833237201</v>
+        <v>0.4886914884858551</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>max_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.139290564110561</v>
+        <v>0.1289094513254362</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4711358038156491</v>
+        <v>0.4971977327211543</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1315449673307331</v>
+        <v>-0.1194065856831603</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4963802378813413</v>
+        <v>0.5296885394149746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1296943918365091</v>
+        <v>-0.1194065856831602</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5025106094281669</v>
+        <v>0.5296885394149746</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_121-150days_avg</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.1282293666324143</v>
+        <v>-0.1013362536905431</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5073904047690083</v>
+        <v>0.5941499692971323</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1243166924967782</v>
+        <v>-0.1009225462949975</v>
       </c>
       <c r="C85" t="n">
-        <v>0.520537012602511</v>
+        <v>0.5956645675093369</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>max_temp_C_150days_sum</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1233351418037345</v>
+        <v>-0.08684379860780203</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5238607916155529</v>
+        <v>0.6481633316871239</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1224667223692635</v>
+        <v>-0.08580968919699769</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5268100109590835</v>
+        <v>0.652089567162366</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>max_temp_C_90days_sum</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1197272390744836</v>
+        <v>-0.08580968919699769</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5361655700978022</v>
+        <v>0.652089567162366</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1158768157867156</v>
+        <v>0.08570214257648628</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5494469238989054</v>
+        <v>0.6524984188127136</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1050758036045516</v>
+        <v>-0.08157562963328648</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5874976579762677</v>
+        <v>0.6682594563476485</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_91-120days_avg</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08973952243786137</v>
+        <v>0.07687624435251406</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6434068621176391</v>
+        <v>0.6863780848871835</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.08611323548602982</v>
+        <v>-0.07442569480507309</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6569252963853059</v>
+        <v>0.6958950620955839</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08574990827185403</v>
+        <v>0.07423030883430964</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6582856884853138</v>
+        <v>0.6966558400471798</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>max_temp_C_120days_sum</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.08244156547098391</v>
+        <v>-0.07289588139229354</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6707216512561769</v>
+        <v>0.7018594049093978</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.06743555368986051</v>
+        <v>-0.0728958813922935</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7281604730907906</v>
+        <v>0.7018594049093978</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.06743555368986048</v>
+        <v>-0.06350232129743939</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7281604730907906</v>
+        <v>0.7388519992896267</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_121-150days_avg</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.05720669461988068</v>
+        <v>-0.06350232129743928</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7681788921713462</v>
+        <v>0.7388519992896275</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>max_wind_speed_mps_121-150days_avg</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.05133062799082312</v>
+        <v>-0.06227422500088881</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7914417033486285</v>
+        <v>0.7437329103434293</v>
       </c>
     </row>
     <row r="99">
@@ -1718,205 +1718,205 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.04999925140332944</v>
+        <v>0.05938583762067778</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7967377131734349</v>
+        <v>0.7552505677590714</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.04941421478161789</v>
+        <v>-0.0582664136933787</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7990677080216289</v>
+        <v>0.7597283706121412</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_91-120days_avg</t>
+          <t>mean_humidity_pct_91-120days_avg</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.04926988822194028</v>
+        <v>-0.05455686398730784</v>
       </c>
       <c r="C101" t="n">
-        <v>0.799642770296537</v>
+        <v>0.7746206869766435</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_61-90days_avg</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.04373700314418346</v>
+        <v>-0.0498402637974673</v>
       </c>
       <c r="C102" t="n">
-        <v>0.821762889405285</v>
+        <v>0.7936690386573615</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.04181395934241541</v>
+        <v>-0.04957487657002611</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8294834174358329</v>
+        <v>0.7947444015390641</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>max_temp_C_91-120days_avg</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.03226873674573002</v>
+        <v>-0.04952256650491359</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8680218555287436</v>
+        <v>0.7949564082220573</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>max_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.03034892624777066</v>
+        <v>-0.04691988607497617</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8758117990866511</v>
+        <v>0.8055225551485863</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_120days_sum</t>
+          <t>max_wind_speed_mps_150days_sum</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.02954810760783926</v>
+        <v>-0.04354211190902157</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8790646507724524</v>
+        <v>0.8192853125734423</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_61-90days_avg</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.02747111440993855</v>
+        <v>-0.04325920641677821</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8875100572889512</v>
+        <v>0.8204404642321435</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>total_precip_mm_121-150days_avg</t>
+          <t>mean_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.02454161320906708</v>
+        <v>0.04190103550676937</v>
       </c>
       <c r="C108" t="n">
-        <v>0.899442205655737</v>
+        <v>0.825991196876684</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mean_temp_C_91-120days_avg</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.02047955189839312</v>
+        <v>0.04183626827185274</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9160223824187691</v>
+        <v>0.8262561029369584</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>mean_wind_speed_mps_150days_sum</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.02038134142316916</v>
+        <v>-0.04161365781014786</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9164237044510255</v>
+        <v>0.8271667498522373</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>max_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.01878649184866234</v>
+        <v>-0.03885209721687177</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9229435565177869</v>
+        <v>0.8384815574914855</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>max_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.01878649184866228</v>
+        <v>-0.03705514136117664</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9229435565177877</v>
+        <v>0.8458612736880645</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_120days_sum</t>
+          <t>mean_humidity_pct_14days_sum</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.01582020507584565</v>
+        <v>-0.03522638987627896</v>
       </c>
       <c r="C113" t="n">
-        <v>0.9350826197813931</v>
+        <v>0.8533847107111886</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>max_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.01558685324375768</v>
+        <v>-0.03496329996680293</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9360382149038039</v>
+        <v>0.8544681098128972</v>
       </c>
     </row>
     <row r="115">
@@ -1926,166 +1926,166 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.01145879167675151</v>
+        <v>-0.0326986757226527</v>
       </c>
       <c r="C115" t="n">
-        <v>0.9529561474126772</v>
+        <v>0.8638043178644066</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.01065932095285476</v>
+        <v>-0.0259959035176238</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9562351360335432</v>
+        <v>0.8915382451605501</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.01030084170173604</v>
+        <v>-0.02599590351762377</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9577056505146609</v>
+        <v>0.8915382451605501</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_150days_sum</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.008127767907494952</v>
+        <v>-0.0172119667569775</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9666225326339601</v>
+        <v>0.9280691027956723</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_90days_sum</t>
+          <t>mean_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.007749981276231225</v>
+        <v>-0.01580240781956309</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9681731547712701</v>
+        <v>0.9339465123664682</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.00602334156864028</v>
+        <v>0.01540627860726061</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9752614945263157</v>
+        <v>0.9355988704391036</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.005308271168079207</v>
+        <v>0.0117474842772331</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9781976288197709</v>
+        <v>0.9508721814594328</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.004018296782138189</v>
+        <v>-0.01117679748927913</v>
       </c>
       <c r="C122" t="n">
-        <v>0.983495042590197</v>
+        <v>0.9532561369075927</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.004018296782138183</v>
+        <v>-0.008463098354186667</v>
       </c>
       <c r="C123" t="n">
-        <v>0.983495042590197</v>
+        <v>0.9645972596011473</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>max_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.003944880599653262</v>
+        <v>-0.006058782536921655</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9837965564984696</v>
+        <v>0.9746511328340466</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>min_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.003944880599653167</v>
+        <v>0.004554724745282625</v>
       </c>
       <c r="C125" t="n">
-        <v>0.983796556498471</v>
+        <v>0.9809425246508495</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_150days_sum</t>
+          <t>mean_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.002231227140642656</v>
+        <v>0.00238260095294526</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9908349172255694</v>
+        <v>0.9900302814355784</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>min_temp_C_91-120days_avg</t>
+          <t>mean_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.0007414824057205005</v>
+        <v>-0.001262723271699056</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9969541993737187</v>
+        <v>0.994716186809409</v>
       </c>
     </row>
   </sheetData>
